--- a/user_input/rst_cao_njv.xlsx
+++ b/user_input/rst_cao_njv.xlsx
@@ -15,7 +15,7 @@
     <sheet name="RTS &gt;10%" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RTS &gt;10%'!$A$1:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RTS &gt;10%'!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,45 +27,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>KIG - Tien Hai - SOU - SUB 2</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Tỉnh</t>
+  </si>
+  <si>
+    <t>Dest_hub_name</t>
+  </si>
+  <si>
+    <t>HAT - Thach Ha - NOR - SUB 2</t>
+  </si>
+  <si>
+    <t>NGA - Ky Son - NOR - SUB 2</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
   <si>
     <t>Hà Giang</t>
   </si>
   <si>
-    <t>Hà Tĩnh</t>
-  </si>
-  <si>
-    <t>Kiên Giang</t>
-  </si>
-  <si>
-    <t>KIG - Tien Hai - SOU - SUB 2</t>
-  </si>
-  <si>
-    <t>Nghệ An</t>
+    <t>Thái Nguyên</t>
   </si>
   <si>
     <t>Sơn La</t>
   </si>
   <si>
-    <t>Thanh Hóa</t>
-  </si>
-  <si>
-    <t>Tỉnh</t>
-  </si>
-  <si>
-    <t>Dest_hub_name</t>
-  </si>
-  <si>
-    <t>NGA - Tuong Duong - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>HAT - Thach Ha - NOR - SUB 2</t>
+    <t>BAG - Hiep Hoa - NOR - SUB 2</t>
+  </si>
+  <si>
+    <t>THN - Pho Yen - NOR - SUB 2</t>
+  </si>
+  <si>
+    <t>RTS T3</t>
   </si>
   <si>
     <t>SOL - Bac Yen - NOR - SUB 2</t>
   </si>
   <si>
-    <t>Đắk Nông</t>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t>KHH - Binh Ba - SOU - SUB 2</t>
+  </si>
+  <si>
+    <t>BD - Nam Tan Uyen - SOU - SUB 2</t>
+  </si>
+  <si>
+    <t>HAG - Ha Giang - NOR</t>
+  </si>
+  <si>
+    <t>HAG - Xin Man - NOR - SUB 2</t>
+  </si>
+  <si>
+    <t>HD - Kim Thanh - NOR - SUB 2</t>
   </si>
   <si>
     <t>Lâm Đồng</t>
@@ -74,115 +107,22 @@
     <t>LAD - Bao Lam - SOU - SUB 2</t>
   </si>
   <si>
-    <t>Cao Bằng</t>
-  </si>
-  <si>
-    <t>THH - Ha Trung - NOR - SUB 2</t>
+    <t>NGA - Thanh Chuong - NOR - SUB 2</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>QUA - Dong Giang - SOU - SUB 2 - Virtual</t>
+  </si>
+  <si>
+    <t>SOL - Song Ma - NOR - SUB 2</t>
   </si>
   <si>
     <t>Tuyên Quang</t>
   </si>
   <si>
-    <t>RTS T12</t>
-  </si>
-  <si>
-    <t>Quảng Bình</t>
-  </si>
-  <si>
-    <t>QUB - Minh Hoa - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>CAB - Tra Linh - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>DAN - Krong No - SOU - SUB 2</t>
-  </si>
-  <si>
-    <t>NGA - Do Luong - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>Quảng Nam</t>
-  </si>
-  <si>
-    <t>Lạng Sơn</t>
-  </si>
-  <si>
-    <t>NGA - Ky Son - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>QUA - Nui Thanh - SOU - SUB 2</t>
-  </si>
-  <si>
-    <t>Bắc Giang</t>
-  </si>
-  <si>
-    <t>BAG - Luc Ngan - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>CAB - Bao Lam - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>HAG - Meo Vac - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>HAT - Can Loc - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>NGA - Anh Son - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>QUA - Hiep Duc - SOU - SUB 2</t>
-  </si>
-  <si>
-    <t>TUQ - Ham Yen - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>CAB - Bao Lac - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>DAN - Dak Glong - SOU - SUB 2</t>
-  </si>
-  <si>
-    <t>HAG - Hoang Su Phi - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>HAG - Vi Xuyen - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>Lai Châu</t>
-  </si>
-  <si>
-    <t>LAC - Muong Te - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>LAS - Binh Gia - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>Lào Cai</t>
-  </si>
-  <si>
-    <t>LCA - Si Ma Cai - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>NGA - Quy Hop - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>NGA - Thanh Chuong - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>QNG - Tra Bong - SOU - SUB 2</t>
-  </si>
-  <si>
-    <t>Quảng Ninh</t>
-  </si>
-  <si>
-    <t>QUN - Ba Che - NOR - SUB 2</t>
-  </si>
-  <si>
-    <t>QUN - Mong Cai - NOR</t>
+    <t>TUQ - Na Hang - NOR - SUB 2</t>
   </si>
 </sst>
 </file>
@@ -243,18 +183,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -548,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,351 +515,204 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.13255813953488371</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.11073446327683617</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.15</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.11249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.15</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.53809523809523818</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.15</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.20952380952380953</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.15714285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.13214285714285715</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.11739130434782608</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.52093023255813953</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.1222222222222222</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.10434782608695653</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.11818181818181817</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.14096385542168674</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.2583333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.21944444444444441</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.15937499999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.9</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.16666666666666666</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.10249999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.9</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.104074074074074</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.11428571428571427</v>
+      <c r="C16" s="2">
+        <v>0.10309278350515463</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.19999999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.12448979591836734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.12077922077922076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.1361111111111111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.11794871794871795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.24374999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.10588235294117646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.13255813953488371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.11428571428571427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.19629629629629627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.11428571428571427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.10014084507042301</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C26"/>
+  <autoFilter ref="A1:C11"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B26">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="duplicateValues" dxfId="2" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B1048576 B1:B11">
+    <cfRule type="duplicateValues" dxfId="1" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B13">
+    <cfRule type="duplicateValues" dxfId="0" priority="118"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
